--- a/database/industries/ghaza/gheshan/product/monthly.xlsx
+++ b/database/industries/ghaza/gheshan/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="97">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3323,71 +3323,71 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="V11" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="W11" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AF11" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI11" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AD11" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AJ11" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AF11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG11" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP11" s="13" t="n">
-        <v>10</v>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>58</v>
@@ -3482,107 +3482,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>569</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="W12" s="16" t="n">
+        <v>773</v>
+      </c>
+      <c r="X12" s="16" t="n">
+        <v>422</v>
+      </c>
+      <c r="Y12" s="16" t="n">
+        <v>674</v>
+      </c>
+      <c r="Z12" s="16" t="n">
+        <v>694</v>
+      </c>
+      <c r="AA12" s="16" t="n">
+        <v>514</v>
+      </c>
+      <c r="AB12" s="16" t="n">
+        <v>547</v>
+      </c>
+      <c r="AC12" s="16" t="n">
+        <v>806</v>
+      </c>
+      <c r="AD12" s="16" t="n">
+        <v>694</v>
+      </c>
+      <c r="AE12" s="16" t="n">
+        <v>536</v>
+      </c>
+      <c r="AF12" s="16" t="n">
+        <v>859</v>
+      </c>
+      <c r="AG12" s="16" t="n">
+        <v>661</v>
+      </c>
+      <c r="AH12" s="16" t="n">
+        <v>538</v>
+      </c>
+      <c r="AI12" s="16" t="n">
+        <v>550</v>
+      </c>
+      <c r="AJ12" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="AK12" s="16" t="n">
+        <v>325</v>
+      </c>
+      <c r="AL12" s="16" t="n">
+        <v>298</v>
+      </c>
+      <c r="AM12" s="16" t="n">
+        <v>356</v>
+      </c>
+      <c r="AN12" s="16" t="n">
+        <v>344</v>
+      </c>
+      <c r="AO12" s="16" t="n">
+        <v>343</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>616</v>
+      </c>
+      <c r="AQ12" s="16" t="n">
+        <v>327</v>
+      </c>
+      <c r="AR12" s="16" t="n">
+        <v>542</v>
+      </c>
+      <c r="AS12" s="16" t="n">
+        <v>383</v>
+      </c>
+      <c r="AT12" s="16" t="n">
+        <v>486</v>
+      </c>
+      <c r="AU12" s="16" t="n">
+        <v>396</v>
+      </c>
+      <c r="AV12" s="16" t="n">
+        <v>404</v>
+      </c>
+      <c r="AW12" s="16" t="n">
+        <v>417</v>
+      </c>
+      <c r="AX12" s="16" t="n">
+        <v>317</v>
+      </c>
+      <c r="AY12" s="16" t="n">
+        <v>445</v>
+      </c>
+      <c r="AZ12" s="16" t="n">
         <v>472</v>
       </c>
-      <c r="X12" s="16" t="n">
-        <v>773</v>
-      </c>
-      <c r="Y12" s="16" t="n">
-        <v>422</v>
-      </c>
-      <c r="Z12" s="16" t="n">
-        <v>674</v>
-      </c>
-      <c r="AA12" s="16" t="n">
-        <v>694</v>
-      </c>
-      <c r="AB12" s="16" t="n">
-        <v>514</v>
-      </c>
-      <c r="AC12" s="16" t="n">
-        <v>547</v>
-      </c>
-      <c r="AD12" s="16" t="n">
-        <v>806</v>
-      </c>
-      <c r="AE12" s="16" t="n">
-        <v>694</v>
-      </c>
-      <c r="AF12" s="16" t="n">
-        <v>536</v>
-      </c>
-      <c r="AG12" s="16" t="n">
-        <v>859</v>
-      </c>
-      <c r="AH12" s="16" t="n">
-        <v>661</v>
-      </c>
-      <c r="AI12" s="16" t="n">
-        <v>538</v>
-      </c>
-      <c r="AJ12" s="16" t="n">
-        <v>550</v>
-      </c>
-      <c r="AK12" s="16" t="n">
-        <v>345</v>
-      </c>
-      <c r="AL12" s="16" t="n">
-        <v>325</v>
-      </c>
-      <c r="AM12" s="16" t="n">
-        <v>298</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>356</v>
-      </c>
-      <c r="AO12" s="16" t="n">
-        <v>344</v>
-      </c>
-      <c r="AP12" s="16" t="n">
-        <v>343</v>
-      </c>
-      <c r="AQ12" s="16" t="n">
-        <v>616</v>
-      </c>
-      <c r="AR12" s="16" t="n">
-        <v>327</v>
-      </c>
-      <c r="AS12" s="16" t="n">
-        <v>542</v>
-      </c>
-      <c r="AT12" s="16" t="n">
-        <v>383</v>
-      </c>
-      <c r="AU12" s="16" t="n">
-        <v>486</v>
-      </c>
-      <c r="AV12" s="16" t="n">
-        <v>396</v>
-      </c>
-      <c r="AW12" s="16" t="n">
-        <v>404</v>
-      </c>
-      <c r="AX12" s="16" t="n">
-        <v>417</v>
-      </c>
-      <c r="AY12" s="16" t="n">
-        <v>317</v>
-      </c>
-      <c r="AZ12" s="16" t="n">
-        <v>445</v>
-      </c>
       <c r="BA12" s="16" t="n">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>548</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,107 +3641,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>344</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>490</v>
+        <v>639</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>362</v>
+        <v>742</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>742</v>
+        <v>636</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>541</v>
+        <v>408</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AQ13" s="13" t="n">
+        <v>343</v>
+      </c>
+      <c r="AR13" s="13" t="n">
         <v>468</v>
       </c>
-      <c r="AR13" s="13" t="n">
-        <v>343</v>
-      </c>
       <c r="AS13" s="13" t="n">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>302</v>
+        <v>478</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,8 +3800,8 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -3810,61 +3810,61 @@
         <v>0</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AB14" s="16" t="n">
-        <v>2</v>
-      </c>
       <c r="AC14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="16" t="n">
         <v>3</v>
-      </c>
-      <c r="AD14" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AE14" s="16" t="n">
         <v>3</v>
       </c>
       <c r="AF14" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AG14" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="16" t="n">
+      <c r="AM14" s="16" t="n">
         <v>4</v>
-      </c>
-      <c r="AL14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>3</v>
       </c>
       <c r="AN14" s="16" t="n">
         <v>4</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP14" s="16" t="n">
         <v>2</v>
+      </c>
+      <c r="AP14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ14" s="16" t="s">
         <v>58</v>
@@ -3959,107 +3959,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>170</v>
       </c>
       <c r="V15" s="13" t="n">
+        <v>158</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>189</v>
+      </c>
+      <c r="X15" s="13" t="n">
         <v>170</v>
       </c>
-      <c r="W15" s="13" t="n">
-        <v>158</v>
-      </c>
-      <c r="X15" s="13" t="n">
-        <v>189</v>
-      </c>
       <c r="Y15" s="13" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z15" s="13" t="n">
+        <v>176</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>214</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>191</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>207</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>149</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>186</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>177</v>
+      </c>
+      <c r="AL15" s="13" t="n">
         <v>169</v>
       </c>
-      <c r="AA15" s="13" t="n">
-        <v>176</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>138</v>
-      </c>
-      <c r="AC15" s="13" t="n">
-        <v>136</v>
-      </c>
-      <c r="AD15" s="13" t="n">
-        <v>138</v>
-      </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AM15" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>177</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>243</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>270</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>268</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>235</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>263</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>259</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>285</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>279</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>212</v>
+      </c>
+      <c r="AZ15" s="13" t="n">
         <v>214</v>
       </c>
-      <c r="AF15" s="13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG15" s="13" t="n">
-        <v>191</v>
-      </c>
-      <c r="AH15" s="13" t="n">
-        <v>207</v>
-      </c>
-      <c r="AI15" s="13" t="n">
-        <v>149</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>186</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL15" s="13" t="n">
-        <v>177</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>141</v>
-      </c>
-      <c r="AP15" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>177</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>243</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>270</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>268</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>263</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>259</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>285</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>279</v>
-      </c>
-      <c r="AZ15" s="13" t="n">
-        <v>212</v>
-      </c>
       <c r="BA15" s="13" t="n">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>294</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,107 +4118,107 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>134</v>
       </c>
       <c r="V16" s="16" t="n">
+        <v>1168</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>133</v>
+      </c>
+      <c r="X16" s="16" t="n">
+        <v>261</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>242</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>187</v>
+      </c>
+      <c r="AB16" s="16" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC16" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="AD16" s="16" t="n">
+        <v>316</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>83</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>305</v>
+      </c>
+      <c r="AH16" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
+        <v>259</v>
+      </c>
+      <c r="AK16" s="16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>177</v>
+      </c>
+      <c r="AM16" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN16" s="16" t="n">
+        <v>167</v>
+      </c>
+      <c r="AO16" s="16" t="n">
+        <v>377</v>
+      </c>
+      <c r="AP16" s="16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AQ16" s="16" t="n">
+        <v>217</v>
+      </c>
+      <c r="AR16" s="16" t="n">
+        <v>249</v>
+      </c>
+      <c r="AS16" s="16" t="n">
         <v>134</v>
       </c>
-      <c r="W16" s="16" t="n">
-        <v>1168</v>
-      </c>
-      <c r="X16" s="16" t="n">
-        <v>133</v>
-      </c>
-      <c r="Y16" s="16" t="n">
-        <v>261</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>242</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>187</v>
-      </c>
-      <c r="AC16" s="16" t="n">
-        <v>243</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>207</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>316</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>83</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AH16" s="16" t="n">
-        <v>305</v>
-      </c>
-      <c r="AI16" s="16" t="n">
-        <v>93</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
+      <c r="AT16" s="16" t="n">
+        <v>107</v>
+      </c>
+      <c r="AU16" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV16" s="16" t="n">
         <v>74</v>
       </c>
-      <c r="AK16" s="16" t="n">
-        <v>259</v>
-      </c>
-      <c r="AL16" s="16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>177</v>
-      </c>
-      <c r="AN16" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO16" s="16" t="n">
-        <v>167</v>
-      </c>
-      <c r="AP16" s="16" t="n">
-        <v>377</v>
-      </c>
-      <c r="AQ16" s="16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AR16" s="16" t="n">
-        <v>217</v>
-      </c>
-      <c r="AS16" s="16" t="n">
-        <v>249</v>
-      </c>
-      <c r="AT16" s="16" t="n">
-        <v>134</v>
-      </c>
-      <c r="AU16" s="16" t="n">
-        <v>107</v>
-      </c>
-      <c r="AV16" s="16" t="n">
-        <v>53</v>
-      </c>
       <c r="AW16" s="16" t="n">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>234</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,107 +4277,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>2598</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>2598</v>
+        <v>2326</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>2326</v>
+        <v>2745</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>2745</v>
+        <v>2569</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>2569</v>
+        <v>2685</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>2685</v>
+        <v>2809</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>2809</v>
+        <v>2422</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>2426</v>
+        <v>2195</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>2195</v>
+        <v>2242</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>2242</v>
+        <v>2171</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>2171</v>
+        <v>2532</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>2532</v>
+        <v>2411</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>2411</v>
+        <v>2329</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>2329</v>
+        <v>2280</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>2280</v>
+        <v>2054</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>2054</v>
+        <v>2318</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>2318</v>
+        <v>2186</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>2186</v>
+        <v>2291</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>2291</v>
+        <v>2375</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>2375</v>
+        <v>2295</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>2295</v>
+        <v>2188</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>2188</v>
+        <v>2390</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>2390</v>
+        <v>2358</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>2358</v>
+        <v>1806</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>1806</v>
+        <v>1856</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>1856</v>
+        <v>2201</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>2201</v>
+        <v>2139</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>2139</v>
+        <v>2529</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>2529</v>
+        <v>2540</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>2540</v>
+        <v>2480</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>2480</v>
+        <v>2202</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>2202</v>
+        <v>2178</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>2178</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,44 +4499,44 @@
       <c r="AO18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="16" t="s">
-        <v>58</v>
+      <c r="AP18" s="16" t="n">
+        <v>229</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>210</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,71 +4595,71 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>265</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="AD19" s="13" t="n">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AH19" s="13" t="n">
+        <v>179</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>149</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>192</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>162</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>172</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>152</v>
+      </c>
+      <c r="AO19" s="13" t="n">
         <v>143</v>
       </c>
-      <c r="AI19" s="13" t="n">
-        <v>179</v>
-      </c>
-      <c r="AJ19" s="13" t="n">
-        <v>149</v>
-      </c>
-      <c r="AK19" s="13" t="n">
-        <v>192</v>
-      </c>
-      <c r="AL19" s="13" t="n">
-        <v>162</v>
-      </c>
-      <c r="AM19" s="13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN19" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AO19" s="13" t="n">
-        <v>152</v>
-      </c>
-      <c r="AP19" s="13" t="n">
-        <v>143</v>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ19" s="13" t="s">
         <v>58</v>
@@ -4754,71 +4754,71 @@
       <c r="T20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>58</v>
+      <c r="U20" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X20" s="16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y20" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="Z20" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA20" s="16" t="n">
+      <c r="AB20" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD20" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="AB20" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="16" t="n">
+      <c r="AF20" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH20" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="16" t="n">
         <v>8</v>
-      </c>
-      <c r="AD20" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE20" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG20" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ20" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" s="16" t="n">
-        <v>3</v>
       </c>
       <c r="AL20" s="16" t="n">
         <v>8</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP20" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="AP20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>58</v>
@@ -4913,107 +4913,107 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13" t="n">
+        <v>103</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="X21" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z21" s="13" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA21" s="13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AB21" s="13" t="n">
+        <v>167</v>
+      </c>
+      <c r="AC21" s="13" t="n">
+        <v>154</v>
+      </c>
+      <c r="AD21" s="13" t="n">
+        <v>164</v>
+      </c>
+      <c r="AE21" s="13" t="n">
+        <v>152</v>
+      </c>
+      <c r="AF21" s="13" t="n">
         <v>101</v>
       </c>
-      <c r="Y21" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="13" t="n">
+      <c r="AG21" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AH21" s="13" t="n">
         <v>91</v>
       </c>
-      <c r="AA21" s="13" t="n">
-        <v>132</v>
-      </c>
-      <c r="AB21" s="13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AC21" s="13" t="n">
-        <v>167</v>
-      </c>
-      <c r="AD21" s="13" t="n">
-        <v>154</v>
-      </c>
-      <c r="AE21" s="13" t="n">
-        <v>164</v>
-      </c>
-      <c r="AF21" s="13" t="n">
+      <c r="AI21" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AK21" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL21" s="13" t="n">
+        <v>142</v>
+      </c>
+      <c r="AM21" s="13" t="n">
         <v>152</v>
       </c>
-      <c r="AG21" s="13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH21" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AI21" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AJ21" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AK21" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AL21" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM21" s="13" t="n">
-        <v>142</v>
-      </c>
       <c r="AN21" s="13" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AU21" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="AV21" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW21" s="13" t="n">
+        <v>143</v>
+      </c>
+      <c r="AX21" s="13" t="n">
+        <v>237</v>
+      </c>
+      <c r="AY21" s="13" t="n">
+        <v>346</v>
+      </c>
+      <c r="AZ21" s="13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA21" s="13" t="n">
         <v>151</v>
       </c>
-      <c r="AV21" s="13" t="n">
-        <v>146</v>
-      </c>
-      <c r="AW21" s="13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AX21" s="13" t="n">
-        <v>143</v>
-      </c>
-      <c r="AY21" s="13" t="n">
-        <v>237</v>
-      </c>
-      <c r="AZ21" s="13" t="n">
-        <v>346</v>
-      </c>
-      <c r="BA21" s="13" t="n">
-        <v>301</v>
-      </c>
       <c r="BB21" s="13" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,107 +5072,107 @@
       <c r="T22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="16" t="s">
-        <v>58</v>
+      <c r="U22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="X22" s="16" t="n">
+      <c r="AR22" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS22" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="Y22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="16" t="n">
+      <c r="AT22" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU22" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AE22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR22" s="16" t="n">
+      <c r="AZ22" s="16" t="n">
         <v>3</v>
-      </c>
-      <c r="AS22" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT22" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU22" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV22" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY22" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="BA22" s="16" t="n">
         <v>3</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,8 +5231,8 @@
       <c r="T23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>58</v>
+      <c r="U23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="13" t="n">
         <v>0</v>
@@ -5258,8 +5258,8 @@
       <c r="AC23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="13" t="n">
-        <v>0</v>
+      <c r="AD23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE23" s="13" t="s">
         <v>58</v>
@@ -5390,8 +5390,8 @@
       <c r="T24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>58</v>
+      <c r="U24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="16" t="n">
         <v>0</v>
@@ -5420,17 +5420,17 @@
       <c r="AD24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="16" t="s">
-        <v>58</v>
+      <c r="AE24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AH24" s="16" t="n">
-        <v>0</v>
+      <c r="AH24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="16" t="s">
         <v>58</v>
@@ -5438,11 +5438,11 @@
       <c r="AJ24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL24" s="16" t="n">
-        <v>0</v>
+      <c r="AK24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM24" s="16" t="s">
         <v>58</v>
@@ -5450,17 +5450,17 @@
       <c r="AN24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="16" t="s">
-        <v>58</v>
+      <c r="AO24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP24" s="16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ24" s="16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AR24" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="16" t="n">
         <v>0</v>
@@ -5469,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="AU24" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AV24" s="16" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AX24" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="16" t="n">
         <v>0</v>
@@ -5548,106 +5548,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>4099</v>
+        <v>4011</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>4011</v>
+        <v>4320</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>4320</v>
+        <v>4149</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>4149</v>
+        <v>4096</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>4096</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,8 +5832,8 @@
       <c r="AQ27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR27" s="13" t="s">
-        <v>58</v>
+      <c r="AR27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS27" s="13" t="n">
         <v>0</v>
@@ -5991,8 +5991,8 @@
       <c r="AQ28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR28" s="16" t="s">
-        <v>58</v>
+      <c r="AR28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS28" s="16" t="n">
         <v>0</v>
@@ -6150,8 +6150,8 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS29" s="13" t="n">
         <v>0</v>
@@ -6309,8 +6309,8 @@
       <c r="AQ30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="16" t="s">
-        <v>58</v>
+      <c r="AR30" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS30" s="16" t="n">
         <v>0</v>
@@ -6459,11 +6459,11 @@
       <c r="AN31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="13" t="n">
-        <v>0</v>
+      <c r="AO31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="13" t="s">
         <v>58</v>
@@ -6627,8 +6627,8 @@
       <c r="AQ32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="16" t="s">
-        <v>58</v>
+      <c r="AR32" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS32" s="16" t="n">
         <v>0</v>
@@ -6929,8 +6929,8 @@
       <c r="T35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>58</v>
+      <c r="U35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="18" t="n">
         <v>0</v>
@@ -7087,106 +7087,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="22" t="n">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="V36" s="22" t="n">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="W36" s="22" t="n">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="X36" s="22" t="n">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="Y36" s="22" t="n">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="Z36" s="22" t="n">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="AA36" s="22" t="n">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AB36" s="22" t="n">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AC36" s="22" t="n">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AD36" s="22" t="n">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AE36" s="22" t="n">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AF36" s="22" t="n">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AG36" s="22" t="n">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AH36" s="22" t="n">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AI36" s="22" t="n">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AJ36" s="22" t="n">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AK36" s="22" t="n">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AL36" s="22" t="n">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AM36" s="22" t="n">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AN36" s="22" t="n">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AO36" s="22" t="n">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AP36" s="22" t="n">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AQ36" s="22" t="n">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AR36" s="22" t="n">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AS36" s="22" t="n">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AT36" s="22" t="n">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AU36" s="22" t="n">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AV36" s="22" t="n">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="AW36" s="22" t="n">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="AX36" s="22" t="n">
-        <v>4099</v>
+        <v>4011</v>
       </c>
       <c r="AY36" s="22" t="n">
-        <v>4011</v>
+        <v>4320</v>
       </c>
       <c r="AZ36" s="22" t="n">
-        <v>4320</v>
+        <v>4149</v>
       </c>
       <c r="BA36" s="22" t="n">
-        <v>4149</v>
+        <v>4096</v>
       </c>
       <c r="BB36" s="22" t="n">
-        <v>4096</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,71 +7679,71 @@
       <c r="T43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="13" t="s">
-        <v>58</v>
+      <c r="U43" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="V43" s="13" t="n">
         <v>2</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="Y43" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB43" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="Z43" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA43" s="13" t="n">
+      <c r="AD43" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE43" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="AB43" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC43" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE43" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF43" s="13" t="n">
-        <v>3</v>
       </c>
       <c r="AG43" s="13" t="n">
         <v>5</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL43" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM43" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="AK43" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL43" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM43" s="13" t="n">
-        <v>8</v>
       </c>
       <c r="AN43" s="13" t="n">
         <v>1</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="13" t="n">
         <v>6</v>
+      </c>
+      <c r="AP43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ43" s="13" t="s">
         <v>58</v>
@@ -7838,107 +7838,107 @@
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>571</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>512</v>
+        <v>736</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>736</v>
+        <v>466</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>466</v>
+        <v>599</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>698</v>
+        <v>511</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="AC44" s="16" t="n">
+        <v>803</v>
+      </c>
+      <c r="AD44" s="16" t="n">
+        <v>642</v>
+      </c>
+      <c r="AE44" s="16" t="n">
         <v>612</v>
       </c>
-      <c r="AD44" s="16" t="n">
-        <v>803</v>
-      </c>
-      <c r="AE44" s="16" t="n">
-        <v>642</v>
-      </c>
       <c r="AF44" s="16" t="n">
-        <v>612</v>
+        <v>796</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>678</v>
+        <v>524</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>575</v>
+        <v>322</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AO44" s="16" t="n">
         <v>353</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>353</v>
+        <v>537</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,107 +7997,107 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>332</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>455</v>
+        <v>638</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>638</v>
+        <v>363</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>363</v>
+        <v>693</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>665</v>
+        <v>560</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="AP45" s="13" t="n">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>167</v>
+        <v>385</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,20 +8156,20 @@
       <c r="T46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="16" t="s">
-        <v>58</v>
+      <c r="U46" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="16" t="n">
         <v>2</v>
-      </c>
-      <c r="X46" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="Z46" s="16" t="n">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD46" s="16" t="n">
         <v>3</v>
@@ -8193,34 +8193,34 @@
         <v>3</v>
       </c>
       <c r="AG46" s="16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ46" s="16" t="n">
         <v>4</v>
       </c>
       <c r="AK46" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AL46" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM46" s="16" t="n">
+      <c r="AN46" s="16" t="n">
         <v>3</v>
-      </c>
-      <c r="AN46" s="16" t="n">
-        <v>4</v>
       </c>
       <c r="AO46" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AP46" s="16" t="n">
-        <v>3</v>
+      <c r="AP46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ46" s="16" t="s">
         <v>58</v>
@@ -8315,107 +8315,107 @@
       <c r="T47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
+      <c r="U47" s="13" t="n">
+        <v>129</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AF47" s="13" t="n">
+        <v>219</v>
+      </c>
+      <c r="AG47" s="13" t="n">
+        <v>135</v>
+      </c>
+      <c r="AH47" s="13" t="n">
+        <v>172</v>
+      </c>
+      <c r="AI47" s="13" t="n">
+        <v>189</v>
+      </c>
+      <c r="AJ47" s="13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK47" s="13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL47" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="AM47" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AN47" s="13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AO47" s="13" t="n">
+        <v>204</v>
+      </c>
+      <c r="AP47" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="AG47" s="13" t="n">
-        <v>219</v>
-      </c>
-      <c r="AH47" s="13" t="n">
-        <v>135</v>
-      </c>
-      <c r="AI47" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AJ47" s="13" t="n">
-        <v>189</v>
-      </c>
-      <c r="AK47" s="13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL47" s="13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM47" s="13" t="n">
-        <v>166</v>
-      </c>
-      <c r="AN47" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AO47" s="13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AP47" s="13" t="n">
-        <v>204</v>
-      </c>
       <c r="AQ47" s="13" t="n">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,107 +8474,107 @@
       <c r="T48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>58</v>
+      <c r="U48" s="16" t="n">
+        <v>208</v>
       </c>
       <c r="V48" s="16" t="n">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="W48" s="16" t="n">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="X48" s="16" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Y48" s="16" t="n">
+        <v>195</v>
+      </c>
+      <c r="Z48" s="16" t="n">
+        <v>159</v>
+      </c>
+      <c r="AA48" s="16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB48" s="16" t="n">
+        <v>127</v>
+      </c>
+      <c r="AC48" s="16" t="n">
+        <v>371</v>
+      </c>
+      <c r="AD48" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE48" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="16" t="n">
+        <v>311</v>
+      </c>
+      <c r="AG48" s="16" t="n">
+        <v>102</v>
+      </c>
+      <c r="AH48" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI48" s="16" t="n">
+        <v>238</v>
+      </c>
+      <c r="AJ48" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="AK48" s="16" t="n">
+        <v>264</v>
+      </c>
+      <c r="AL48" s="16" t="n">
+        <v>137</v>
+      </c>
+      <c r="AM48" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="AN48" s="16" t="n">
+        <v>168</v>
+      </c>
+      <c r="AO48" s="16" t="n">
+        <v>453</v>
+      </c>
+      <c r="AP48" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ48" s="16" t="n">
+        <v>354</v>
+      </c>
+      <c r="AR48" s="16" t="n">
         <v>207</v>
       </c>
-      <c r="Z48" s="16" t="n">
-        <v>195</v>
-      </c>
-      <c r="AA48" s="16" t="n">
-        <v>159</v>
-      </c>
-      <c r="AB48" s="16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AC48" s="16" t="n">
-        <v>127</v>
-      </c>
-      <c r="AD48" s="16" t="n">
-        <v>371</v>
-      </c>
-      <c r="AE48" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF48" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG48" s="16" t="n">
-        <v>311</v>
-      </c>
-      <c r="AH48" s="16" t="n">
-        <v>102</v>
-      </c>
-      <c r="AI48" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="AJ48" s="16" t="n">
-        <v>238</v>
-      </c>
-      <c r="AK48" s="16" t="n">
-        <v>106</v>
-      </c>
-      <c r="AL48" s="16" t="n">
-        <v>264</v>
-      </c>
-      <c r="AM48" s="16" t="n">
-        <v>137</v>
-      </c>
-      <c r="AN48" s="16" t="n">
-        <v>87</v>
-      </c>
-      <c r="AO48" s="16" t="n">
-        <v>168</v>
-      </c>
-      <c r="AP48" s="16" t="n">
-        <v>453</v>
-      </c>
-      <c r="AQ48" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR48" s="16" t="n">
-        <v>354</v>
-      </c>
       <c r="AS48" s="16" t="n">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AT48" s="16" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AU48" s="16" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AV48" s="16" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="AW48" s="16" t="n">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="AX48" s="16" t="n">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,107 +8633,107 @@
       <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
+      <c r="U49" s="13" t="n">
+        <v>2399</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>2399</v>
+        <v>2276</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>2276</v>
+        <v>2619</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>2619</v>
+        <v>2821</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>2821</v>
+        <v>2588</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>2588</v>
+        <v>2658</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>2658</v>
+        <v>2744</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>2744</v>
+        <v>2303</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>2303</v>
+        <v>2419</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>2419</v>
+        <v>2009</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>2009</v>
+        <v>2301</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>2301</v>
+        <v>2510</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>2510</v>
+        <v>2402</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>2402</v>
+        <v>2167</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>2167</v>
+        <v>2342</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>2342</v>
+        <v>2085</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>2085</v>
+        <v>2256</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>2256</v>
+        <v>2311</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>2311</v>
+        <v>2213</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>2213</v>
+        <v>2390</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>2390</v>
+        <v>2326</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>2326</v>
+        <v>2040</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>2040</v>
+        <v>2416</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>2416</v>
+        <v>1980</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>1980</v>
+        <v>1700</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>1700</v>
+        <v>2048</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>2048</v>
+        <v>2446</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>2446</v>
+        <v>2174</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>2174</v>
+        <v>2516</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>2516</v>
+        <v>2534</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>2534</v>
+        <v>2335</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>2335</v>
+        <v>2404</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>2404</v>
+        <v>2103</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>2103</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,44 +8855,44 @@
       <c r="AO50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="16" t="s">
-        <v>58</v>
+      <c r="AP50" s="16" t="n">
+        <v>607</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>607</v>
+        <v>129</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>219</v>
+        <v>418</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>393</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,71 +8951,71 @@
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13" t="n">
+        <v>118</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>600</v>
+        <v>314</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>104</v>
-      </c>
-      <c r="AP51" s="13" t="n">
         <v>404</v>
+      </c>
+      <c r="AP51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="13" t="s">
         <v>58</v>
@@ -9110,50 +9110,50 @@
       <c r="T52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>58</v>
+      <c r="U52" s="16" t="n">
+        <v>24</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Y52" s="16" t="n">
         <v>5</v>
       </c>
       <c r="Z52" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA52" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB52" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD52" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AA52" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB52" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC52" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="16" t="n">
-        <v>12</v>
-      </c>
       <c r="AE52" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF52" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG52" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH52" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AF52" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG52" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH52" s="16" t="n">
-        <v>7</v>
-      </c>
       <c r="AI52" s="16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ52" s="16" t="n">
         <v>4</v>
@@ -9162,19 +9162,19 @@
         <v>4</v>
       </c>
       <c r="AL52" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM52" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN52" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AM52" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN52" s="16" t="n">
-        <v>3</v>
-      </c>
       <c r="AO52" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP52" s="16" t="n">
         <v>7</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
@@ -9269,107 +9269,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>30</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="Y53" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z53" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AA53" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB53" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC53" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD53" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE53" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF53" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG53" s="13" t="n">
+        <v>156</v>
+      </c>
+      <c r="AH53" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI53" s="13" t="n">
         <v>82</v>
       </c>
-      <c r="Z53" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="AA53" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AB53" s="13" t="n">
-        <v>47</v>
-      </c>
-      <c r="AC53" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="AD53" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE53" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AF53" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG53" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AH53" s="13" t="n">
-        <v>156</v>
-      </c>
-      <c r="AI53" s="13" t="n">
-        <v>64</v>
-      </c>
       <c r="AJ53" s="13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK53" s="13" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL53" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="AM53" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN53" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO53" s="13" t="n">
         <v>81</v>
       </c>
-      <c r="AL53" s="13" t="n">
-        <v>116</v>
-      </c>
-      <c r="AM53" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="AN53" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AO53" s="13" t="n">
-        <v>65</v>
-      </c>
       <c r="AP53" s="13" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>78</v>
+        <v>682</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>682</v>
+        <v>185</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>382</v>
+        <v>221</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>353</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9428,17 +9428,17 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="16" t="n">
         <v>0</v>
@@ -9455,24 +9455,24 @@
       <c r="AC54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD54" s="16" t="n">
-        <v>0</v>
+      <c r="AD54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI54" s="16" t="n">
+      <c r="AF54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH54" s="16" t="n">
         <v>23</v>
       </c>
+      <c r="AI54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ54" s="16" t="s">
         <v>58</v>
       </c>
@@ -9482,35 +9482,35 @@
       <c r="AL54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN54" s="16" t="n">
+      <c r="AM54" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AO54" s="16" t="s">
-        <v>58</v>
+      <c r="AN54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ54" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS54" s="16" t="n">
         <v>3</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW54" s="16" t="n">
         <v>2</v>
@@ -9519,16 +9519,16 @@
         <v>2</v>
       </c>
       <c r="AY54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AZ54" s="16" t="n">
-        <v>1</v>
-      </c>
       <c r="BA54" s="16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,8 +9587,8 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="13" t="n">
         <v>0</v>
@@ -9614,8 +9614,8 @@
       <c r="AC55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="13" t="n">
-        <v>0</v>
+      <c r="AD55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>58</v>
@@ -9746,8 +9746,8 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="16" t="n">
         <v>0</v>
@@ -9776,14 +9776,14 @@
       <c r="AD56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG56" s="16" t="n">
-        <v>0</v>
+      <c r="AE56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF56" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="16" t="s">
         <v>58</v>
@@ -9806,35 +9806,35 @@
       <c r="AN56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO56" s="16" t="s">
-        <v>58</v>
+      <c r="AO56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP56" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="16" t="n">
         <v>0</v>
@@ -9904,106 +9904,106 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="n">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="V57" s="18" t="n">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="W57" s="18" t="n">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>4736</v>
+        <v>4157</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>4157</v>
+        <v>3805</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>3929</v>
+        <v>4653</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>3514</v>
+        <v>3314</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>3982</v>
+        <v>4177</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>4177</v>
+        <v>4289</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>4289</v>
+        <v>3798</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>3798</v>
+        <v>4071</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>4071</v>
+        <v>4247</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>4247</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10188,8 +10188,8 @@
       <c r="AQ59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>58</v>
+      <c r="AR59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS59" s="13" t="n">
         <v>0</v>
@@ -10347,8 +10347,8 @@
       <c r="AQ60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR60" s="16" t="s">
-        <v>58</v>
+      <c r="AR60" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS60" s="16" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="16" t="n">
         <v>0</v>
@@ -10506,8 +10506,8 @@
       <c r="AQ61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="13" t="s">
-        <v>58</v>
+      <c r="AR61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS61" s="13" t="n">
         <v>0</v>
@@ -10665,8 +10665,8 @@
       <c r="AQ62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="16" t="s">
-        <v>58</v>
+      <c r="AR62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS62" s="16" t="n">
         <v>0</v>
@@ -10681,10 +10681,10 @@
         <v>0</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="16" t="n">
         <v>0</v>
@@ -10791,12 +10791,12 @@
       <c r="AF63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH63" s="13" t="n">
+      <c r="AG63" s="13" t="n">
         <v>50</v>
       </c>
+      <c r="AH63" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI63" s="13" t="s">
         <v>58</v>
       </c>
@@ -10815,11 +10815,11 @@
       <c r="AN63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP63" s="13" t="n">
-        <v>0</v>
+      <c r="AO63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ63" s="13" t="s">
         <v>58</v>
@@ -10983,8 +10983,8 @@
       <c r="AQ64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="16" t="s">
-        <v>58</v>
+      <c r="AR64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS64" s="16" t="n">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="16" t="n">
         <v>0</v>
@@ -11108,10 +11108,10 @@
         <v>0</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="18" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="18" t="n">
         <v>0</v>
@@ -11285,8 +11285,8 @@
       <c r="T67" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="18" t="s">
-        <v>58</v>
+      <c r="U67" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="18" t="n">
         <v>0</v>
@@ -11499,8 +11499,8 @@
       <c r="T69" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="18" t="s">
-        <v>58</v>
+      <c r="U69" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="18" t="n">
         <v>0</v>
@@ -11657,106 +11657,106 @@
         <v>0</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>4736</v>
+        <v>4207</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>4207</v>
+        <v>3805</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>3929</v>
+        <v>4653</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>3514</v>
+        <v>3314</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>3982</v>
+        <v>4267</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>4267</v>
+        <v>4289</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>4289</v>
+        <v>3798</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>3798</v>
+        <v>4071</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>4071</v>
+        <v>4247</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>4247</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12249,71 +12249,71 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13" t="n">
+        <v>141</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>153</v>
+        <v>4666</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>4666</v>
+        <v>2945</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>2945</v>
+        <v>3224</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>3224</v>
+        <v>739</v>
       </c>
       <c r="AA77" s="13" t="n">
+        <v>3574</v>
+      </c>
+      <c r="AB77" s="13" t="n">
         <v>739</v>
       </c>
-      <c r="AB77" s="13" t="n">
-        <v>3574</v>
-      </c>
       <c r="AC77" s="13" t="n">
-        <v>739</v>
+        <v>4359</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>4359</v>
+        <v>4448</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>4448</v>
+        <v>420</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>420</v>
+        <v>956</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>956</v>
+        <v>891</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>891</v>
+        <v>3778</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>3778</v>
+        <v>344</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>344</v>
+        <v>6469</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>6469</v>
+        <v>11636</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>11636</v>
+        <v>2355</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>2355</v>
+        <v>196</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>225</v>
-      </c>
-      <c r="AP77" s="13" t="n">
         <v>1920</v>
+      </c>
+      <c r="AP77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ77" s="13" t="s">
         <v>58</v>
@@ -12408,107 +12408,107 @@
       <c r="T78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>58</v>
+      <c r="U78" s="16" t="n">
+        <v>33577</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>33577</v>
+        <v>33021</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>33021</v>
+        <v>45868</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>45868</v>
+        <v>30109</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>30109</v>
+        <v>40334</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>40334</v>
+        <v>54142</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>54142</v>
+        <v>40348</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>40348</v>
+        <v>48320</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>48320</v>
+        <v>66856</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>66856</v>
+        <v>52895</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>52895</v>
+        <v>50312</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>50312</v>
+        <v>67400</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>67400</v>
+        <v>58311</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>58311</v>
+        <v>47189</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>47189</v>
+        <v>63067</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>63067</v>
+        <v>45822</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>45822</v>
+        <v>47551</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>47551</v>
+        <v>43803</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>43803</v>
+        <v>46977</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>46977</v>
+        <v>49678</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>49678</v>
+        <v>51295</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>51295</v>
+        <v>73841</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>73841</v>
+        <v>63725</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>63725</v>
+        <v>108445</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>108445</v>
+        <v>110461</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>110461</v>
+        <v>93180</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>93180</v>
+        <v>90768</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>90768</v>
+        <v>76701</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>76701</v>
+        <v>83710</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>83710</v>
+        <v>77860</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>77860</v>
+        <v>74750</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>74750</v>
+        <v>97769</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>97769</v>
+        <v>112329</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>112329</v>
+        <v>116931</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12567,107 +12567,107 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>9075</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>9075</v>
+        <v>10926</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>10926</v>
+        <v>9551</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>9551</v>
+        <v>7811</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>7811</v>
+        <v>9678</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>9678</v>
+        <v>10379</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>10379</v>
+        <v>10859</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>10859</v>
+        <v>12889</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>12889</v>
+        <v>16142</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>16142</v>
+        <v>22277</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>22277</v>
+        <v>13148</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>13148</v>
+        <v>24589</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>24589</v>
+        <v>24884</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>24884</v>
+        <v>21161</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>21161</v>
+        <v>24324</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>24324</v>
+        <v>17175</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>17175</v>
+        <v>16358</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>16358</v>
+        <v>15108</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>15108</v>
+        <v>18276</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>18276</v>
+        <v>18629</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>18629</v>
+        <v>21934</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>21934</v>
+        <v>20943</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>20943</v>
+        <v>20054</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>20054</v>
+        <v>35120</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>35120</v>
+        <v>40801</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>40801</v>
+        <v>36240</v>
       </c>
       <c r="AU79" s="13" t="n">
         <v>36240</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>36240</v>
+        <v>25758</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>25758</v>
+        <v>21718</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>21718</v>
+        <v>27257</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>27257</v>
+        <v>13808</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>13808</v>
+        <v>28775</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>28775</v>
+        <v>32089</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>32089</v>
+        <v>33229</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12726,71 +12726,71 @@
       <c r="T80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>58</v>
+      <c r="U80" s="16" t="n">
+        <v>39</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>505</v>
+        <v>721</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>535</v>
+        <v>202</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>265</v>
+        <v>864</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="AK80" s="16" t="n">
-        <v>879</v>
+        <v>1215</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>1215</v>
+        <v>477</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>904</v>
+        <v>703</v>
       </c>
       <c r="AO80" s="16" t="n">
-        <v>703</v>
-      </c>
-      <c r="AP80" s="16" t="n">
         <v>824</v>
+      </c>
+      <c r="AP80" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ80" s="16" t="s">
         <v>58</v>
@@ -12885,107 +12885,107 @@
       <c r="T81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>58</v>
+      <c r="U81" s="13" t="n">
+        <v>24627</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>24627</v>
+        <v>37055</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>37055</v>
+        <v>34779</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>34779</v>
+        <v>41840</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>41840</v>
+        <v>33427</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>33427</v>
+        <v>37567</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>37567</v>
+        <v>47276</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>47276</v>
+        <v>37896</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>37896</v>
+        <v>46347</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>46347</v>
+        <v>49890</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>49890</v>
+        <v>48734</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>48734</v>
+        <v>68737</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>68737</v>
+        <v>43252</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>43252</v>
+        <v>55990</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>55990</v>
+        <v>67161</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>67161</v>
+        <v>63306</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>63306</v>
+        <v>76204</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>76204</v>
+        <v>76167</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>76167</v>
+        <v>71495</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>71495</v>
+        <v>50828</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>50828</v>
+        <v>72619</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>72619</v>
+        <v>71151</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>71151</v>
+        <v>121782</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>121782</v>
+        <v>138713</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>138713</v>
+        <v>202016</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>202016</v>
+        <v>151357</v>
       </c>
       <c r="AU81" s="13" t="n">
-        <v>151357</v>
+        <v>147539</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>147539</v>
+        <v>170501</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>170501</v>
+        <v>216762</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>216762</v>
+        <v>214925</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>214925</v>
+        <v>166331</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>166331</v>
+        <v>157839</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>157839</v>
+        <v>243769</v>
       </c>
       <c r="BB81" s="13" t="n">
-        <v>243769</v>
+        <v>223203</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,107 +13044,107 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>38307</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>38307</v>
+        <v>37471</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>37471</v>
+        <v>55370</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>55370</v>
+        <v>59039</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>59039</v>
+        <v>50295</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>50295</v>
+        <v>56922</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>56922</v>
+        <v>57615</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>57615</v>
+        <v>30607</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>30607</v>
+        <v>79793</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>79793</v>
+        <v>17013</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>17013</v>
+        <v>12987</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>12987</v>
+        <v>84770</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>84770</v>
+        <v>44707</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>44707</v>
+        <v>28783</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>28783</v>
+        <v>74114</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>74114</v>
+        <v>45184</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>45184</v>
+        <v>81905</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>81905</v>
+        <v>28089</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>28089</v>
+        <v>33289</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>33289</v>
+        <v>51522</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>51522</v>
+        <v>117406</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>117406</v>
+        <v>32095</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>32095</v>
+        <v>110993</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>110993</v>
+        <v>79684</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>79684</v>
+        <v>49003</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>49003</v>
+        <v>64779</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>64779</v>
+        <v>57588</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>57588</v>
+        <v>91868</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>91868</v>
+        <v>66615</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>66615</v>
+        <v>83955</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>83955</v>
+        <v>111426</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>111426</v>
+        <v>136468</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>136468</v>
+        <v>41152</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>41152</v>
+        <v>123582</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13203,107 +13203,107 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>100984</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>100984</v>
+        <v>102850</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>102850</v>
+        <v>131424</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>131424</v>
+        <v>146082</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>146082</v>
+        <v>126195</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>126195</v>
+        <v>162057</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>162057</v>
+        <v>177733</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>177733</v>
+        <v>125838</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>125838</v>
+        <v>159560</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>159560</v>
+        <v>114731</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>114731</v>
+        <v>135352</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>135352</v>
+        <v>160172</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>160172</v>
+        <v>145295</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>145295</v>
+        <v>136747</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>136747</v>
+        <v>193281</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>193281</v>
+        <v>192450</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>192450</v>
+        <v>207159</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>207159</v>
+        <v>204606</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>204606</v>
+        <v>190205</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>190205</v>
+        <v>212832</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>212832</v>
+        <v>212367</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>212367</v>
+        <v>184328</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>184328</v>
+        <v>263662</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>263662</v>
+        <v>321224</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>321224</v>
+        <v>276161</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>276161</v>
+        <v>340405</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>340405</v>
+        <v>404134</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>404134</v>
+        <v>353170</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>353170</v>
+        <v>412526</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>412526</v>
+        <v>427258</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>427258</v>
+        <v>383447</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>383447</v>
+        <v>395386</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>395386</v>
+        <v>334399</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>334399</v>
+        <v>379377</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13425,44 +13425,44 @@
       <c r="AO84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP84" s="16" t="s">
-        <v>58</v>
+      <c r="AP84" s="16" t="n">
+        <v>338191</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>338191</v>
+        <v>44114</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>44114</v>
+        <v>43733</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>43733</v>
+        <v>211580</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>211580</v>
+        <v>77449</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>77449</v>
+        <v>254832</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>254832</v>
+        <v>262156</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>262156</v>
+        <v>173951</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>173951</v>
+        <v>366752</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>366752</v>
+        <v>221813</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>221813</v>
+        <v>144272</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>144272</v>
+        <v>374846</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>374846</v>
+        <v>282508</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13521,71 +13521,71 @@
       <c r="T85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>58</v>
+      <c r="U85" s="13" t="n">
+        <v>27560</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>27560</v>
+        <v>176269</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>176269</v>
+        <v>74352</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>74352</v>
+        <v>101452</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>101452</v>
+        <v>18225</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>18225</v>
+        <v>872</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>872</v>
+        <v>129178</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>129178</v>
+        <v>98442</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>98442</v>
+        <v>74991</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>74991</v>
+        <v>110063</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>110063</v>
+        <v>111396</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>111396</v>
+        <v>40145</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>40145</v>
+        <v>2343</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>2343</v>
+        <v>98103</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>98103</v>
+        <v>228663</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>228663</v>
+        <v>2505</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>2505</v>
+        <v>2760</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>2760</v>
+        <v>35100</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>35100</v>
+        <v>14850</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>14850</v>
+        <v>56160</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>56160</v>
-      </c>
-      <c r="AP85" s="13" t="n">
         <v>218400</v>
+      </c>
+      <c r="AP85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ85" s="13" t="s">
         <v>58</v>
@@ -13680,71 +13680,71 @@
       <c r="T86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>58</v>
+      <c r="U86" s="16" t="n">
+        <v>13409</v>
       </c>
       <c r="V86" s="16" t="n">
-        <v>13409</v>
+        <v>927</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>927</v>
+        <v>10466</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>10466</v>
+        <v>3069</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>3069</v>
+        <v>3324</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>3324</v>
+        <v>16965</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>16965</v>
+        <v>1388</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>1388</v>
+        <v>552</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>552</v>
+        <v>14436</v>
       </c>
       <c r="AD86" s="16" t="n">
-        <v>14436</v>
+        <v>4866</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>4866</v>
+        <v>7207</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>7207</v>
+        <v>22690</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>22690</v>
+        <v>8143</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>8143</v>
+        <v>7202</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>7202</v>
+        <v>6256</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>6256</v>
+        <v>5873</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>5873</v>
+        <v>6532</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>6532</v>
+        <v>7311</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>7311</v>
+        <v>5427</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>5427</v>
+        <v>7103</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>7103</v>
-      </c>
-      <c r="AP86" s="16" t="n">
         <v>11541</v>
+      </c>
+      <c r="AP86" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ86" s="16" t="s">
         <v>58</v>
@@ -13839,107 +13839,107 @@
       <c r="T87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>58</v>
+      <c r="U87" s="13" t="n">
+        <v>11259</v>
       </c>
       <c r="V87" s="13" t="n">
-        <v>11259</v>
+        <v>12436</v>
       </c>
       <c r="W87" s="13" t="n">
-        <v>12436</v>
+        <v>28504</v>
       </c>
       <c r="X87" s="13" t="n">
-        <v>28504</v>
+        <v>51483</v>
       </c>
       <c r="Y87" s="13" t="n">
-        <v>51483</v>
+        <v>60895</v>
       </c>
       <c r="Z87" s="13" t="n">
-        <v>60895</v>
+        <v>55546</v>
       </c>
       <c r="AA87" s="13" t="n">
-        <v>55546</v>
+        <v>36075</v>
       </c>
       <c r="AB87" s="13" t="n">
-        <v>36075</v>
+        <v>48573</v>
       </c>
       <c r="AC87" s="13" t="n">
-        <v>48573</v>
+        <v>36750</v>
       </c>
       <c r="AD87" s="13" t="n">
-        <v>36750</v>
+        <v>41596</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>41596</v>
+        <v>33379</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>33379</v>
+        <v>50264</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>50264</v>
+        <v>86833</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>86833</v>
+        <v>45135</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>45135</v>
+        <v>63370</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>63370</v>
+        <v>65782</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>65782</v>
+        <v>103108</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>103108</v>
+        <v>128441</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>128441</v>
+        <v>50228</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>50228</v>
+        <v>57940</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>57940</v>
+        <v>54264</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>54264</v>
+        <v>69509</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>69509</v>
+        <v>531500</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>531500</v>
+        <v>262560</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>262560</v>
+        <v>131888</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>131888</v>
+        <v>523210</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>523210</v>
+        <v>310587</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>310587</v>
+        <v>498159</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>498159</v>
+        <v>451621</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>451621</v>
+        <v>236040</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>236040</v>
+        <v>305907</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>305907</v>
+        <v>168108</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>168108</v>
+        <v>521376</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>521376</v>
+        <v>299950</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13998,17 +13998,17 @@
       <c r="T88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="16" t="s">
-        <v>58</v>
+      <c r="U88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V88" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W88" s="16" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="X88" s="16" t="n">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="16" t="n">
         <v>0</v>
@@ -14025,23 +14025,23 @@
       <c r="AC88" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD88" s="16" t="n">
-        <v>0</v>
+      <c r="AD88" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF88" s="16" t="s">
-        <v>58</v>
+      <c r="AF88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG88" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>0</v>
+        <v>8213</v>
       </c>
       <c r="AI88" s="16" t="n">
-        <v>8213</v>
+        <v>0</v>
       </c>
       <c r="AJ88" s="16" t="n">
         <v>0</v>
@@ -14050,55 +14050,55 @@
         <v>0</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM88" s="16" t="n">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="AN88" s="16" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AO88" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AP88" s="16" t="n">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="AQ88" s="16" t="n">
-        <v>1203</v>
+        <v>1378</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>1378</v>
+        <v>931</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>931</v>
+        <v>1329</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>1329</v>
+        <v>1839</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>1839</v>
+        <v>652</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>777</v>
+        <v>630</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>630</v>
+        <v>929</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>929</v>
+        <v>1525</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>1525</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14157,8 +14157,8 @@
       <c r="T89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U89" s="13" t="s">
-        <v>58</v>
+      <c r="U89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V89" s="13" t="n">
         <v>0</v>
@@ -14184,8 +14184,8 @@
       <c r="AC89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD89" s="13" t="n">
-        <v>0</v>
+      <c r="AD89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE89" s="13" t="s">
         <v>58</v>
@@ -14316,8 +14316,8 @@
       <c r="T90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>58</v>
+      <c r="U90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="16" t="n">
         <v>0</v>
@@ -14383,28 +14383,28 @@
         <v>0</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>294</v>
+        <v>737</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>737</v>
+        <v>1347</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>1347</v>
+        <v>1542</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="16" t="n">
         <v>0</v>
@@ -14474,106 +14474,106 @@
         <v>0</v>
       </c>
       <c r="U91" s="18" t="n">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="V91" s="18" t="n">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="W91" s="18" t="n">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="X91" s="18" t="n">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="Y91" s="18" t="n">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="Z91" s="18" t="n">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="AA91" s="18" t="n">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AB91" s="18" t="n">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AC91" s="18" t="n">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AD91" s="18" t="n">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AE91" s="18" t="n">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AF91" s="18" t="n">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AG91" s="18" t="n">
-        <v>520258</v>
+        <v>414861</v>
       </c>
       <c r="AH91" s="18" t="n">
-        <v>414861</v>
+        <v>452566</v>
       </c>
       <c r="AI91" s="18" t="n">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AJ91" s="18" t="n">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AK91" s="18" t="n">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AL91" s="18" t="n">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AM91" s="18" t="n">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AN91" s="18" t="n">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AO91" s="18" t="n">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AP91" s="18" t="n">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AQ91" s="18" t="n">
-        <v>791261</v>
+        <v>1157827</v>
       </c>
       <c r="AR91" s="18" t="n">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AS91" s="18" t="n">
-        <v>990410</v>
+        <v>1023456</v>
       </c>
       <c r="AT91" s="18" t="n">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AU91" s="18" t="n">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AV91" s="18" t="n">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="AW91" s="18" t="n">
-        <v>1480313</v>
+        <v>1429162</v>
       </c>
       <c r="AX91" s="18" t="n">
-        <v>1429162</v>
+        <v>1434824</v>
       </c>
       <c r="AY91" s="18" t="n">
-        <v>1434824</v>
+        <v>1278112</v>
       </c>
       <c r="AZ91" s="18" t="n">
-        <v>1278112</v>
+        <v>1129546</v>
       </c>
       <c r="BA91" s="18" t="n">
-        <v>1129546</v>
+        <v>1661485</v>
       </c>
       <c r="BB91" s="18" t="n">
-        <v>1661485</v>
+        <v>1460828</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14758,8 +14758,8 @@
       <c r="AQ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="13" t="s">
-        <v>58</v>
+      <c r="AR93" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS93" s="13" t="n">
         <v>0</v>
@@ -14917,8 +14917,8 @@
       <c r="AQ94" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR94" s="16" t="s">
-        <v>58</v>
+      <c r="AR94" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS94" s="16" t="n">
         <v>0</v>
@@ -14933,10 +14933,10 @@
         <v>0</v>
       </c>
       <c r="AW94" s="16" t="n">
-        <v>0</v>
+        <v>4158</v>
       </c>
       <c r="AX94" s="16" t="n">
-        <v>4158</v>
+        <v>0</v>
       </c>
       <c r="AY94" s="16" t="n">
         <v>0</v>
@@ -15076,8 +15076,8 @@
       <c r="AQ95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR95" s="13" t="s">
-        <v>58</v>
+      <c r="AR95" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS95" s="13" t="n">
         <v>0</v>
@@ -15235,8 +15235,8 @@
       <c r="AQ96" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR96" s="16" t="s">
-        <v>58</v>
+      <c r="AR96" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS96" s="16" t="n">
         <v>0</v>
@@ -15251,10 +15251,10 @@
         <v>0</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>0</v>
+        <v>83241</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>83241</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="16" t="n">
         <v>0</v>
@@ -15361,11 +15361,11 @@
       <c r="AF97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG97" s="13" t="s">
-        <v>58</v>
+      <c r="AG97" s="13" t="n">
+        <v>29000</v>
       </c>
       <c r="AH97" s="13" t="n">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AI97" s="13" t="n">
         <v>0</v>
@@ -15388,8 +15388,8 @@
       <c r="AO97" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP97" s="13" t="n">
-        <v>0</v>
+      <c r="AP97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="13" t="s">
         <v>58</v>
@@ -15553,8 +15553,8 @@
       <c r="AQ98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR98" s="16" t="s">
-        <v>58</v>
+      <c r="AR98" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS98" s="16" t="n">
         <v>0</v>
@@ -15569,10 +15569,10 @@
         <v>0</v>
       </c>
       <c r="AW98" s="16" t="n">
-        <v>0</v>
+        <v>20550</v>
       </c>
       <c r="AX98" s="16" t="n">
-        <v>20550</v>
+        <v>0</v>
       </c>
       <c r="AY98" s="16" t="n">
         <v>0</v>
@@ -15678,10 +15678,10 @@
         <v>0</v>
       </c>
       <c r="AG99" s="18" t="n">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="AH99" s="18" t="n">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AI99" s="18" t="n">
         <v>0</v>
@@ -15726,10 +15726,10 @@
         <v>0</v>
       </c>
       <c r="AW99" s="18" t="n">
-        <v>0</v>
+        <v>107949</v>
       </c>
       <c r="AX99" s="18" t="n">
-        <v>107949</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="18" t="n">
         <v>0</v>
@@ -15857,8 +15857,8 @@
       <c r="T101" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="18" t="s">
-        <v>58</v>
+      <c r="U101" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V101" s="23" t="n">
         <v>0</v>
@@ -16073,8 +16073,8 @@
       <c r="T103" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U103" s="18" t="s">
-        <v>58</v>
+      <c r="U103" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V103" s="23" t="n">
         <v>0</v>
@@ -16289,8 +16289,8 @@
       <c r="T105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="13" t="s">
-        <v>58</v>
+      <c r="U105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V105" s="13" t="n">
         <v>0</v>
@@ -16447,106 +16447,106 @@
         <v>0</v>
       </c>
       <c r="U106" s="22" t="n">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="V106" s="22" t="n">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="W106" s="22" t="n">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="X106" s="22" t="n">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="Y106" s="22" t="n">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="Z106" s="22" t="n">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="AA106" s="22" t="n">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AB106" s="22" t="n">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AC106" s="22" t="n">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AD106" s="22" t="n">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AE106" s="22" t="n">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AF106" s="22" t="n">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AG106" s="22" t="n">
-        <v>520258</v>
+        <v>443861</v>
       </c>
       <c r="AH106" s="22" t="n">
-        <v>443861</v>
+        <v>452566</v>
       </c>
       <c r="AI106" s="22" t="n">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AJ106" s="22" t="n">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AK106" s="22" t="n">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AL106" s="22" t="n">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AM106" s="22" t="n">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AN106" s="22" t="n">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AO106" s="22" t="n">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AP106" s="22" t="n">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AQ106" s="22" t="n">
-        <v>791261</v>
+        <v>1157827</v>
       </c>
       <c r="AR106" s="22" t="n">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AS106" s="22" t="n">
-        <v>990410</v>
+        <v>1023456</v>
       </c>
       <c r="AT106" s="22" t="n">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AU106" s="22" t="n">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AV106" s="22" t="n">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="AW106" s="22" t="n">
-        <v>1480313</v>
+        <v>1537111</v>
       </c>
       <c r="AX106" s="22" t="n">
-        <v>1537111</v>
+        <v>1434824</v>
       </c>
       <c r="AY106" s="22" t="n">
-        <v>1434824</v>
+        <v>1278112</v>
       </c>
       <c r="AZ106" s="22" t="n">
-        <v>1278112</v>
+        <v>1129546</v>
       </c>
       <c r="BA106" s="22" t="n">
-        <v>1129546</v>
+        <v>1661485</v>
       </c>
       <c r="BB106" s="22" t="n">
-        <v>1661485</v>
+        <v>1460828</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17039,71 +17039,71 @@
       <c r="T113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U113" s="13" t="s">
-        <v>58</v>
+      <c r="U113" s="13" t="n">
+        <v>70500000</v>
       </c>
       <c r="V113" s="13" t="n">
-        <v>70500000</v>
+        <v>76500000</v>
       </c>
       <c r="W113" s="13" t="n">
-        <v>76500000</v>
+        <v>83321429</v>
       </c>
       <c r="X113" s="13" t="n">
-        <v>83321429</v>
+        <v>98166667</v>
       </c>
       <c r="Y113" s="13" t="n">
-        <v>98166667</v>
+        <v>124000000</v>
       </c>
       <c r="Z113" s="13" t="n">
-        <v>124000000</v>
+        <v>147800000</v>
       </c>
       <c r="AA113" s="13" t="n">
+        <v>137461538</v>
+      </c>
+      <c r="AB113" s="13" t="n">
         <v>147800000</v>
       </c>
-      <c r="AB113" s="13" t="n">
-        <v>137461538</v>
-      </c>
       <c r="AC113" s="13" t="n">
-        <v>147800000</v>
+        <v>145300000</v>
       </c>
       <c r="AD113" s="13" t="n">
-        <v>145300000</v>
+        <v>143483871</v>
       </c>
       <c r="AE113" s="13" t="n">
-        <v>143483871</v>
+        <v>140000000</v>
       </c>
       <c r="AF113" s="13" t="n">
-        <v>140000000</v>
+        <v>191200000</v>
       </c>
       <c r="AG113" s="13" t="n">
-        <v>191200000</v>
+        <v>178200000</v>
       </c>
       <c r="AH113" s="13" t="n">
-        <v>178200000</v>
+        <v>251866667</v>
       </c>
       <c r="AI113" s="13" t="n">
-        <v>251866667</v>
+        <v>344000000</v>
       </c>
       <c r="AJ113" s="13" t="n">
-        <v>344000000</v>
+        <v>248807692</v>
       </c>
       <c r="AK113" s="13" t="n">
-        <v>248807692</v>
+        <v>228156863</v>
       </c>
       <c r="AL113" s="13" t="n">
-        <v>228156863</v>
+        <v>294375000</v>
       </c>
       <c r="AM113" s="13" t="n">
-        <v>294375000</v>
+        <v>196000000</v>
       </c>
       <c r="AN113" s="13" t="n">
-        <v>196000000</v>
+        <v>225000000</v>
       </c>
       <c r="AO113" s="13" t="n">
-        <v>225000000</v>
-      </c>
-      <c r="AP113" s="13" t="n">
         <v>320000000</v>
+      </c>
+      <c r="AP113" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ113" s="13" t="s">
         <v>58</v>
@@ -17198,107 +17198,107 @@
       <c r="T114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U114" s="16" t="s">
-        <v>58</v>
+      <c r="U114" s="16" t="n">
+        <v>58803853</v>
       </c>
       <c r="V114" s="16" t="n">
-        <v>58803853</v>
+        <v>64494141</v>
       </c>
       <c r="W114" s="16" t="n">
-        <v>64494141</v>
+        <v>62320652</v>
       </c>
       <c r="X114" s="16" t="n">
-        <v>62320652</v>
+        <v>64611588</v>
       </c>
       <c r="Y114" s="16" t="n">
-        <v>64611588</v>
+        <v>67335559</v>
       </c>
       <c r="Z114" s="16" t="n">
-        <v>67335559</v>
+        <v>77567335</v>
       </c>
       <c r="AA114" s="16" t="n">
-        <v>77567335</v>
+        <v>78958904</v>
       </c>
       <c r="AB114" s="16" t="n">
-        <v>78958904</v>
+        <v>78954248</v>
       </c>
       <c r="AC114" s="16" t="n">
-        <v>78954248</v>
+        <v>83257783</v>
       </c>
       <c r="AD114" s="16" t="n">
-        <v>83257783</v>
+        <v>82390966</v>
       </c>
       <c r="AE114" s="16" t="n">
-        <v>82390966</v>
+        <v>82209150</v>
       </c>
       <c r="AF114" s="16" t="n">
-        <v>82209150</v>
+        <v>84673367</v>
       </c>
       <c r="AG114" s="16" t="n">
-        <v>84673367</v>
+        <v>86004425</v>
       </c>
       <c r="AH114" s="16" t="n">
-        <v>86004425</v>
+        <v>90055344</v>
       </c>
       <c r="AI114" s="16" t="n">
-        <v>90055344</v>
+        <v>109681739</v>
       </c>
       <c r="AJ114" s="16" t="n">
-        <v>109681739</v>
+        <v>142304348</v>
       </c>
       <c r="AK114" s="16" t="n">
-        <v>142304348</v>
+        <v>145415902</v>
       </c>
       <c r="AL114" s="16" t="n">
-        <v>145415902</v>
+        <v>138617089</v>
       </c>
       <c r="AM114" s="16" t="n">
-        <v>138617089</v>
+        <v>143222561</v>
       </c>
       <c r="AN114" s="16" t="n">
-        <v>143222561</v>
+        <v>140730878</v>
       </c>
       <c r="AO114" s="16" t="n">
-        <v>140730878</v>
+        <v>145311615</v>
       </c>
       <c r="AP114" s="16" t="n">
-        <v>145311615</v>
+        <v>137506518</v>
       </c>
       <c r="AQ114" s="16" t="n">
-        <v>137506518</v>
+        <v>155806846</v>
       </c>
       <c r="AR114" s="16" t="n">
-        <v>155806846</v>
+        <v>238865639</v>
       </c>
       <c r="AS114" s="16" t="n">
-        <v>238865639</v>
+        <v>248226966</v>
       </c>
       <c r="AT114" s="16" t="n">
-        <v>248226966</v>
+        <v>227268293</v>
       </c>
       <c r="AU114" s="16" t="n">
-        <v>227268293</v>
+        <v>210598608</v>
       </c>
       <c r="AV114" s="16" t="n">
-        <v>210598608</v>
+        <v>199742188</v>
       </c>
       <c r="AW114" s="16" t="n">
-        <v>199742188</v>
+        <v>198836105</v>
       </c>
       <c r="AX114" s="16" t="n">
-        <v>198836105</v>
+        <v>216880223</v>
       </c>
       <c r="AY114" s="16" t="n">
-        <v>216880223</v>
+        <v>202027027</v>
       </c>
       <c r="AZ114" s="16" t="n">
-        <v>202027027</v>
+        <v>198717480</v>
       </c>
       <c r="BA114" s="16" t="n">
-        <v>198717480</v>
+        <v>199873665</v>
       </c>
       <c r="BB114" s="16" t="n">
-        <v>199873665</v>
+        <v>199201022</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17357,107 +17357,107 @@
       <c r="T115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U115" s="13" t="s">
-        <v>58</v>
+      <c r="U115" s="13" t="n">
+        <v>27334337</v>
       </c>
       <c r="V115" s="13" t="n">
-        <v>27334337</v>
+        <v>28305699</v>
       </c>
       <c r="W115" s="13" t="n">
-        <v>28305699</v>
+        <v>27524496</v>
       </c>
       <c r="X115" s="13" t="n">
-        <v>27524496</v>
+        <v>26841924</v>
       </c>
       <c r="Y115" s="13" t="n">
-        <v>26841924</v>
+        <v>28133721</v>
       </c>
       <c r="Z115" s="13" t="n">
-        <v>28133721</v>
+        <v>34254125</v>
       </c>
       <c r="AA115" s="13" t="n">
-        <v>34254125</v>
+        <v>32806647</v>
       </c>
       <c r="AB115" s="13" t="n">
-        <v>32806647</v>
+        <v>31590686</v>
       </c>
       <c r="AC115" s="13" t="n">
-        <v>31590686</v>
+        <v>35476923</v>
       </c>
       <c r="AD115" s="13" t="n">
-        <v>35476923</v>
+        <v>34916928</v>
       </c>
       <c r="AE115" s="13" t="n">
-        <v>34916928</v>
+        <v>36220386</v>
       </c>
       <c r="AF115" s="13" t="n">
-        <v>36220386</v>
+        <v>35481962</v>
       </c>
       <c r="AG115" s="13" t="n">
-        <v>35481962</v>
+        <v>37419549</v>
       </c>
       <c r="AH115" s="13" t="n">
-        <v>37419549</v>
+        <v>37787500</v>
       </c>
       <c r="AI115" s="13" t="n">
-        <v>37787500</v>
+        <v>44878229</v>
       </c>
       <c r="AJ115" s="13" t="n">
-        <v>44878229</v>
+        <v>46798365</v>
       </c>
       <c r="AK115" s="13" t="n">
-        <v>46798365</v>
+        <v>46603989</v>
       </c>
       <c r="AL115" s="13" t="n">
-        <v>46603989</v>
+        <v>45920973</v>
       </c>
       <c r="AM115" s="13" t="n">
-        <v>45920973</v>
+        <v>46385787</v>
       </c>
       <c r="AN115" s="13" t="n">
-        <v>46385787</v>
+        <v>46456359</v>
       </c>
       <c r="AO115" s="13" t="n">
-        <v>46456359</v>
+        <v>46274262</v>
       </c>
       <c r="AP115" s="13" t="n">
-        <v>46274262</v>
+        <v>47706150</v>
       </c>
       <c r="AQ115" s="13" t="n">
-        <v>47706150</v>
+        <v>52497382</v>
       </c>
       <c r="AR115" s="13" t="n">
-        <v>52497382</v>
+        <v>84423077</v>
       </c>
       <c r="AS115" s="13" t="n">
-        <v>84423077</v>
+        <v>81439122</v>
       </c>
       <c r="AT115" s="13" t="n">
-        <v>81439122</v>
+        <v>81073826</v>
       </c>
       <c r="AU115" s="13" t="n">
-        <v>81073826</v>
+        <v>81990950</v>
       </c>
       <c r="AV115" s="13" t="n">
-        <v>81990950</v>
+        <v>81255521</v>
       </c>
       <c r="AW115" s="13" t="n">
-        <v>81255521</v>
+        <v>77288256</v>
       </c>
       <c r="AX115" s="13" t="n">
-        <v>77288256</v>
+        <v>78324713</v>
       </c>
       <c r="AY115" s="13" t="n">
-        <v>78324713</v>
+        <v>82682635</v>
       </c>
       <c r="AZ115" s="13" t="n">
-        <v>82682635</v>
+        <v>74740260</v>
       </c>
       <c r="BA115" s="13" t="n">
-        <v>74740260</v>
+        <v>73937788</v>
       </c>
       <c r="BB115" s="13" t="n">
-        <v>73937788</v>
+        <v>74840090</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17519,68 +17519,68 @@
       <c r="U116" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V116" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W116" s="16" t="n">
+      <c r="V116" s="16" t="n">
         <v>109000000</v>
       </c>
-      <c r="X116" s="16" t="s">
-        <v>58</v>
+      <c r="W116" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="X116" s="16" t="n">
+        <v>216000000</v>
       </c>
       <c r="Y116" s="16" t="n">
+        <v>168000000</v>
+      </c>
+      <c r="Z116" s="16" t="n">
+        <v>215500000</v>
+      </c>
+      <c r="AA116" s="16" t="n">
+        <v>239000000</v>
+      </c>
+      <c r="AB116" s="16" t="n">
+        <v>201000000</v>
+      </c>
+      <c r="AC116" s="16" t="n">
+        <v>168333333</v>
+      </c>
+      <c r="AD116" s="16" t="n">
+        <v>240333333</v>
+      </c>
+      <c r="AE116" s="16" t="n">
+        <v>189000000</v>
+      </c>
+      <c r="AF116" s="16" t="n">
+        <v>178333333</v>
+      </c>
+      <c r="AG116" s="16" t="n">
+        <v>202000000</v>
+      </c>
+      <c r="AH116" s="16" t="n">
+        <v>265000000</v>
+      </c>
+      <c r="AI116" s="16" t="n">
         <v>216000000</v>
       </c>
-      <c r="Z116" s="16" t="n">
-        <v>168000000</v>
-      </c>
-      <c r="AA116" s="16" t="n">
-        <v>215500000</v>
-      </c>
-      <c r="AB116" s="16" t="n">
-        <v>239000000</v>
-      </c>
-      <c r="AC116" s="16" t="n">
-        <v>201000000</v>
-      </c>
-      <c r="AD116" s="16" t="n">
-        <v>168333333</v>
-      </c>
-      <c r="AE116" s="16" t="n">
-        <v>240333333</v>
-      </c>
-      <c r="AF116" s="16" t="n">
-        <v>189000000</v>
-      </c>
-      <c r="AG116" s="16" t="n">
-        <v>178333333</v>
-      </c>
-      <c r="AH116" s="16" t="n">
-        <v>202000000</v>
-      </c>
-      <c r="AI116" s="16" t="n">
-        <v>265000000</v>
-      </c>
       <c r="AJ116" s="16" t="n">
-        <v>216000000</v>
+        <v>219750000</v>
       </c>
       <c r="AK116" s="16" t="n">
-        <v>219750000</v>
+        <v>243000000</v>
       </c>
       <c r="AL116" s="16" t="n">
-        <v>243000000</v>
+        <v>159000000</v>
       </c>
       <c r="AM116" s="16" t="n">
-        <v>159000000</v>
+        <v>226000000</v>
       </c>
       <c r="AN116" s="16" t="n">
-        <v>226000000</v>
+        <v>234333333</v>
       </c>
       <c r="AO116" s="16" t="n">
-        <v>234333333</v>
-      </c>
-      <c r="AP116" s="16" t="n">
         <v>274666667</v>
+      </c>
+      <c r="AP116" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ116" s="16" t="s">
         <v>58</v>
@@ -17675,107 +17675,107 @@
       <c r="T117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U117" s="13" t="s">
-        <v>58</v>
+      <c r="U117" s="13" t="n">
+        <v>190906977</v>
       </c>
       <c r="V117" s="13" t="n">
-        <v>190906977</v>
+        <v>189056122</v>
       </c>
       <c r="W117" s="13" t="n">
-        <v>189056122</v>
+        <v>221522293</v>
       </c>
       <c r="X117" s="13" t="n">
-        <v>221522293</v>
+        <v>209200000</v>
       </c>
       <c r="Y117" s="13" t="n">
-        <v>209200000</v>
+        <v>206339506</v>
       </c>
       <c r="Z117" s="13" t="n">
-        <v>206339506</v>
+        <v>257308219</v>
       </c>
       <c r="AA117" s="13" t="n">
-        <v>257308219</v>
+        <v>286521212</v>
       </c>
       <c r="AB117" s="13" t="n">
-        <v>286521212</v>
+        <v>276613139</v>
       </c>
       <c r="AC117" s="13" t="n">
-        <v>276613139</v>
+        <v>300954545</v>
       </c>
       <c r="AD117" s="13" t="n">
-        <v>300954545</v>
+        <v>298742515</v>
       </c>
       <c r="AE117" s="13" t="n">
-        <v>298742515</v>
+        <v>304587500</v>
       </c>
       <c r="AF117" s="13" t="n">
-        <v>304587500</v>
+        <v>313867580</v>
       </c>
       <c r="AG117" s="13" t="n">
-        <v>313867580</v>
+        <v>320385185</v>
       </c>
       <c r="AH117" s="13" t="n">
-        <v>320385185</v>
+        <v>325523256</v>
       </c>
       <c r="AI117" s="13" t="n">
-        <v>325523256</v>
+        <v>355349206</v>
       </c>
       <c r="AJ117" s="13" t="n">
-        <v>355349206</v>
+        <v>419245033</v>
       </c>
       <c r="AK117" s="13" t="n">
-        <v>419245033</v>
+        <v>435451429</v>
       </c>
       <c r="AL117" s="13" t="n">
-        <v>435451429</v>
+        <v>458837349</v>
       </c>
       <c r="AM117" s="13" t="n">
-        <v>458837349</v>
+        <v>496493056</v>
       </c>
       <c r="AN117" s="13" t="n">
-        <v>496493056</v>
+        <v>403396825</v>
       </c>
       <c r="AO117" s="13" t="n">
-        <v>403396825</v>
+        <v>355975490</v>
       </c>
       <c r="AP117" s="13" t="n">
-        <v>355975490</v>
+        <v>444693750</v>
       </c>
       <c r="AQ117" s="13" t="n">
-        <v>444693750</v>
+        <v>463049430</v>
       </c>
       <c r="AR117" s="13" t="n">
-        <v>463049430</v>
+        <v>651234742</v>
       </c>
       <c r="AS117" s="13" t="n">
-        <v>651234742</v>
+        <v>726676259</v>
       </c>
       <c r="AT117" s="13" t="n">
-        <v>726676259</v>
+        <v>727677885</v>
       </c>
       <c r="AU117" s="13" t="n">
-        <v>727677885</v>
+        <v>784781915</v>
       </c>
       <c r="AV117" s="13" t="n">
-        <v>784781915</v>
+        <v>738099567</v>
       </c>
       <c r="AW117" s="13" t="n">
-        <v>738099567</v>
+        <v>763246479</v>
       </c>
       <c r="AX117" s="13" t="n">
-        <v>763246479</v>
+        <v>746267361</v>
       </c>
       <c r="AY117" s="13" t="n">
-        <v>746267361</v>
+        <v>745878924</v>
       </c>
       <c r="AZ117" s="13" t="n">
-        <v>745878924</v>
+        <v>762507246</v>
       </c>
       <c r="BA117" s="13" t="n">
-        <v>762507246</v>
+        <v>757046584</v>
       </c>
       <c r="BB117" s="13" t="n">
-        <v>757046584</v>
+        <v>704110410</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,107 +17834,107 @@
       <c r="T118" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="16" t="s">
-        <v>58</v>
+      <c r="U118" s="16" t="n">
+        <v>184168269</v>
       </c>
       <c r="V118" s="16" t="n">
-        <v>184168269</v>
+        <v>237158228</v>
       </c>
       <c r="W118" s="16" t="n">
-        <v>237158228</v>
+        <v>296096257</v>
       </c>
       <c r="X118" s="16" t="n">
-        <v>296096257</v>
+        <v>285212560</v>
       </c>
       <c r="Y118" s="16" t="n">
-        <v>285212560</v>
+        <v>257923077</v>
       </c>
       <c r="Z118" s="16" t="n">
-        <v>257923077</v>
+        <v>358000000</v>
       </c>
       <c r="AA118" s="16" t="n">
-        <v>358000000</v>
+        <v>411535714</v>
       </c>
       <c r="AB118" s="16" t="n">
-        <v>411535714</v>
+        <v>241000000</v>
       </c>
       <c r="AC118" s="16" t="n">
-        <v>241000000</v>
+        <v>215075472</v>
       </c>
       <c r="AD118" s="16" t="n">
-        <v>215075472</v>
+        <v>261738462</v>
       </c>
       <c r="AE118" s="16" t="n">
-        <v>261738462</v>
+        <v>447827586</v>
       </c>
       <c r="AF118" s="16" t="n">
-        <v>447827586</v>
+        <v>272572347</v>
       </c>
       <c r="AG118" s="16" t="n">
-        <v>272572347</v>
+        <v>438303922</v>
       </c>
       <c r="AH118" s="16" t="n">
-        <v>438303922</v>
+        <v>323404494</v>
       </c>
       <c r="AI118" s="16" t="n">
-        <v>323404494</v>
+        <v>311403361</v>
       </c>
       <c r="AJ118" s="16" t="n">
-        <v>311403361</v>
+        <v>426264151</v>
       </c>
       <c r="AK118" s="16" t="n">
-        <v>426264151</v>
+        <v>310246212</v>
       </c>
       <c r="AL118" s="16" t="n">
-        <v>310246212</v>
+        <v>205029197</v>
       </c>
       <c r="AM118" s="16" t="n">
-        <v>205029197</v>
+        <v>382632184</v>
       </c>
       <c r="AN118" s="16" t="n">
-        <v>382632184</v>
+        <v>306678571</v>
       </c>
       <c r="AO118" s="16" t="n">
-        <v>306678571</v>
+        <v>259174393</v>
       </c>
       <c r="AP118" s="16" t="n">
-        <v>259174393</v>
+        <v>509444444</v>
       </c>
       <c r="AQ118" s="16" t="n">
-        <v>509444444</v>
+        <v>313539548</v>
       </c>
       <c r="AR118" s="16" t="n">
-        <v>313539548</v>
+        <v>384946860</v>
       </c>
       <c r="AS118" s="16" t="n">
-        <v>384946860</v>
+        <v>671273973</v>
       </c>
       <c r="AT118" s="16" t="n">
-        <v>671273973</v>
+        <v>588900000</v>
       </c>
       <c r="AU118" s="16" t="n">
-        <v>588900000</v>
+        <v>872545455</v>
       </c>
       <c r="AV118" s="16" t="n">
-        <v>872545455</v>
+        <v>574175000</v>
       </c>
       <c r="AW118" s="16" t="n">
-        <v>574175000</v>
+        <v>541585366</v>
       </c>
       <c r="AX118" s="16" t="n">
-        <v>541585366</v>
+        <v>463839779</v>
       </c>
       <c r="AY118" s="16" t="n">
-        <v>463839779</v>
+        <v>449298387</v>
       </c>
       <c r="AZ118" s="16" t="n">
-        <v>449298387</v>
+        <v>404949555</v>
       </c>
       <c r="BA118" s="16" t="n">
-        <v>404949555</v>
+        <v>541473684</v>
       </c>
       <c r="BB118" s="16" t="n">
-        <v>541473684</v>
+        <v>471687023</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17993,107 +17993,107 @@
       <c r="T119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U119" s="13" t="s">
-        <v>58</v>
+      <c r="U119" s="13" t="n">
+        <v>42094206</v>
       </c>
       <c r="V119" s="13" t="n">
-        <v>42094206</v>
+        <v>45188928</v>
       </c>
       <c r="W119" s="13" t="n">
-        <v>45188928</v>
+        <v>50180985</v>
       </c>
       <c r="X119" s="13" t="n">
-        <v>50180985</v>
+        <v>51783765</v>
       </c>
       <c r="Y119" s="13" t="n">
-        <v>51783765</v>
+        <v>48761592</v>
       </c>
       <c r="Z119" s="13" t="n">
-        <v>48761592</v>
+        <v>60969526</v>
       </c>
       <c r="AA119" s="13" t="n">
-        <v>60969526</v>
+        <v>64771501</v>
       </c>
       <c r="AB119" s="13" t="n">
-        <v>64771501</v>
+        <v>54640903</v>
       </c>
       <c r="AC119" s="13" t="n">
-        <v>54640903</v>
+        <v>65961141</v>
       </c>
       <c r="AD119" s="13" t="n">
-        <v>65961141</v>
+        <v>57108512</v>
       </c>
       <c r="AE119" s="13" t="n">
-        <v>57108512</v>
+        <v>58823120</v>
       </c>
       <c r="AF119" s="13" t="n">
-        <v>58823120</v>
+        <v>63813546</v>
       </c>
       <c r="AG119" s="13" t="n">
-        <v>63813546</v>
+        <v>60489176</v>
       </c>
       <c r="AH119" s="13" t="n">
-        <v>60489176</v>
+        <v>63104292</v>
       </c>
       <c r="AI119" s="13" t="n">
-        <v>63104292</v>
+        <v>82528181</v>
       </c>
       <c r="AJ119" s="13" t="n">
-        <v>82528181</v>
+        <v>92302158</v>
       </c>
       <c r="AK119" s="13" t="n">
-        <v>92302158</v>
+        <v>91825798</v>
       </c>
       <c r="AL119" s="13" t="n">
-        <v>91825798</v>
+        <v>88535699</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>88535699</v>
+        <v>85948938</v>
       </c>
       <c r="AN119" s="13" t="n">
-        <v>85948938</v>
+        <v>89051046</v>
       </c>
       <c r="AO119" s="13" t="n">
-        <v>89051046</v>
+        <v>91301376</v>
       </c>
       <c r="AP119" s="13" t="n">
-        <v>91301376</v>
+        <v>90356863</v>
       </c>
       <c r="AQ119" s="13" t="n">
-        <v>90356863</v>
+        <v>109131623</v>
       </c>
       <c r="AR119" s="13" t="n">
-        <v>109131623</v>
+        <v>162234343</v>
       </c>
       <c r="AS119" s="13" t="n">
-        <v>162234343</v>
+        <v>162447647</v>
       </c>
       <c r="AT119" s="13" t="n">
-        <v>162447647</v>
+        <v>166213379</v>
       </c>
       <c r="AU119" s="13" t="n">
-        <v>166213379</v>
+        <v>165222404</v>
       </c>
       <c r="AV119" s="13" t="n">
-        <v>165222404</v>
+        <v>162451702</v>
       </c>
       <c r="AW119" s="13" t="n">
-        <v>162451702</v>
+        <v>163961049</v>
       </c>
       <c r="AX119" s="13" t="n">
-        <v>163961049</v>
+        <v>168610103</v>
       </c>
       <c r="AY119" s="13" t="n">
-        <v>168610103</v>
+        <v>164217131</v>
       </c>
       <c r="AZ119" s="13" t="n">
-        <v>164217131</v>
+        <v>164470050</v>
       </c>
       <c r="BA119" s="13" t="n">
-        <v>164470050</v>
+        <v>159010461</v>
       </c>
       <c r="BB119" s="13" t="n">
-        <v>159010461</v>
+        <v>162752896</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18215,44 +18215,44 @@
       <c r="AO120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP120" s="16" t="s">
-        <v>58</v>
+      <c r="AP120" s="16" t="n">
+        <v>557151565</v>
       </c>
       <c r="AQ120" s="16" t="n">
-        <v>557151565</v>
+        <v>341968992</v>
       </c>
       <c r="AR120" s="16" t="n">
-        <v>341968992</v>
+        <v>780946429</v>
       </c>
       <c r="AS120" s="16" t="n">
-        <v>780946429</v>
+        <v>915930736</v>
       </c>
       <c r="AT120" s="16" t="n">
-        <v>915930736</v>
+        <v>1489403846</v>
       </c>
       <c r="AU120" s="16" t="n">
-        <v>1489403846</v>
+        <v>1048691358</v>
       </c>
       <c r="AV120" s="16" t="n">
-        <v>1048691358</v>
+        <v>764303207</v>
       </c>
       <c r="AW120" s="16" t="n">
-        <v>764303207</v>
+        <v>794296804</v>
       </c>
       <c r="AX120" s="16" t="n">
-        <v>794296804</v>
+        <v>877397129</v>
       </c>
       <c r="AY120" s="16" t="n">
-        <v>877397129</v>
+        <v>924220833</v>
       </c>
       <c r="AZ120" s="16" t="n">
-        <v>924220833</v>
+        <v>1037928058</v>
       </c>
       <c r="BA120" s="16" t="n">
-        <v>1037928058</v>
+        <v>953806616</v>
       </c>
       <c r="BB120" s="16" t="n">
-        <v>953806616</v>
+        <v>941693333</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18311,71 +18311,71 @@
       <c r="T121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U121" s="13" t="s">
-        <v>58</v>
+      <c r="U121" s="13" t="n">
+        <v>233559322</v>
       </c>
       <c r="V121" s="13" t="n">
-        <v>233559322</v>
+        <v>293781667</v>
       </c>
       <c r="W121" s="13" t="n">
-        <v>293781667</v>
+        <v>236789809</v>
       </c>
       <c r="X121" s="13" t="n">
-        <v>236789809</v>
+        <v>277950685</v>
       </c>
       <c r="Y121" s="13" t="n">
-        <v>277950685</v>
+        <v>276136364</v>
       </c>
       <c r="Z121" s="13" t="n">
-        <v>276136364</v>
+        <v>436000000</v>
       </c>
       <c r="AA121" s="13" t="n">
-        <v>436000000</v>
+        <v>351027174</v>
       </c>
       <c r="AB121" s="13" t="n">
-        <v>351027174</v>
+        <v>331454545</v>
       </c>
       <c r="AC121" s="13" t="n">
-        <v>331454545</v>
+        <v>337797297</v>
       </c>
       <c r="AD121" s="13" t="n">
-        <v>337797297</v>
+        <v>362049342</v>
       </c>
       <c r="AE121" s="13" t="n">
-        <v>362049342</v>
+        <v>370086379</v>
       </c>
       <c r="AF121" s="13" t="n">
-        <v>370086379</v>
+        <v>397475248</v>
       </c>
       <c r="AG121" s="13" t="n">
-        <v>397475248</v>
+        <v>390500000</v>
       </c>
       <c r="AH121" s="13" t="n">
-        <v>390500000</v>
+        <v>530286486</v>
       </c>
       <c r="AI121" s="13" t="n">
-        <v>530286486</v>
+        <v>670565982</v>
       </c>
       <c r="AJ121" s="13" t="n">
-        <v>670565982</v>
+        <v>626250000</v>
       </c>
       <c r="AK121" s="13" t="n">
-        <v>626250000</v>
+        <v>552000000</v>
       </c>
       <c r="AL121" s="13" t="n">
-        <v>552000000</v>
+        <v>594915254</v>
       </c>
       <c r="AM121" s="13" t="n">
-        <v>594915254</v>
+        <v>594000000</v>
       </c>
       <c r="AN121" s="13" t="n">
-        <v>594000000</v>
+        <v>540000000</v>
       </c>
       <c r="AO121" s="13" t="n">
-        <v>540000000</v>
-      </c>
-      <c r="AP121" s="13" t="n">
         <v>540594059</v>
+      </c>
+      <c r="AP121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ121" s="13" t="s">
         <v>58</v>
@@ -18470,71 +18470,71 @@
       <c r="T122" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U122" s="16" t="s">
-        <v>58</v>
+      <c r="U122" s="16" t="n">
+        <v>558708333</v>
       </c>
       <c r="V122" s="16" t="n">
-        <v>558708333</v>
+        <v>463500000</v>
       </c>
       <c r="W122" s="16" t="n">
-        <v>463500000</v>
+        <v>550842105</v>
       </c>
       <c r="X122" s="16" t="n">
-        <v>550842105</v>
+        <v>613800000</v>
       </c>
       <c r="Y122" s="16" t="n">
-        <v>613800000</v>
+        <v>664800000</v>
       </c>
       <c r="Z122" s="16" t="n">
-        <v>664800000</v>
+        <v>892894737</v>
       </c>
       <c r="AA122" s="16" t="n">
-        <v>892894737</v>
+        <v>694000000</v>
       </c>
       <c r="AB122" s="16" t="n">
-        <v>694000000</v>
+        <v>552000000</v>
       </c>
       <c r="AC122" s="16" t="n">
-        <v>552000000</v>
+        <v>1203000000</v>
       </c>
       <c r="AD122" s="16" t="n">
-        <v>1203000000</v>
+        <v>973200000</v>
       </c>
       <c r="AE122" s="16" t="n">
-        <v>973200000</v>
+        <v>1029571429</v>
       </c>
       <c r="AF122" s="16" t="n">
-        <v>1029571429</v>
+        <v>945416667</v>
       </c>
       <c r="AG122" s="16" t="n">
-        <v>945416667</v>
+        <v>1163285714</v>
       </c>
       <c r="AH122" s="16" t="n">
-        <v>1163285714</v>
+        <v>1440400000</v>
       </c>
       <c r="AI122" s="16" t="n">
-        <v>1440400000</v>
+        <v>1564000000</v>
       </c>
       <c r="AJ122" s="16" t="n">
-        <v>1564000000</v>
+        <v>1468250000</v>
       </c>
       <c r="AK122" s="16" t="n">
-        <v>1468250000</v>
+        <v>1633000000</v>
       </c>
       <c r="AL122" s="16" t="n">
-        <v>1633000000</v>
+        <v>1462200000</v>
       </c>
       <c r="AM122" s="16" t="n">
-        <v>1462200000</v>
+        <v>1809000000</v>
       </c>
       <c r="AN122" s="16" t="n">
-        <v>1809000000</v>
+        <v>1775750000</v>
       </c>
       <c r="AO122" s="16" t="n">
-        <v>1775750000</v>
-      </c>
-      <c r="AP122" s="16" t="n">
         <v>1648714286</v>
+      </c>
+      <c r="AP122" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ122" s="16" t="s">
         <v>58</v>
@@ -18629,107 +18629,107 @@
       <c r="T123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U123" s="13" t="s">
-        <v>58</v>
+      <c r="U123" s="13" t="n">
+        <v>375300000</v>
       </c>
       <c r="V123" s="13" t="n">
-        <v>375300000</v>
+        <v>365764706</v>
       </c>
       <c r="W123" s="13" t="n">
-        <v>365764706</v>
+        <v>431878788</v>
       </c>
       <c r="X123" s="13" t="n">
-        <v>431878788</v>
+        <v>627841463</v>
       </c>
       <c r="Y123" s="13" t="n">
-        <v>627841463</v>
+        <v>634322917</v>
       </c>
       <c r="Z123" s="13" t="n">
-        <v>634322917</v>
+        <v>750621622</v>
       </c>
       <c r="AA123" s="13" t="n">
-        <v>750621622</v>
+        <v>767553191</v>
       </c>
       <c r="AB123" s="13" t="n">
-        <v>767553191</v>
+        <v>714308824</v>
       </c>
       <c r="AC123" s="13" t="n">
-        <v>714308824</v>
+        <v>735000000</v>
       </c>
       <c r="AD123" s="13" t="n">
-        <v>735000000</v>
+        <v>705016949</v>
       </c>
       <c r="AE123" s="13" t="n">
-        <v>705016949</v>
+        <v>681204082</v>
       </c>
       <c r="AF123" s="13" t="n">
-        <v>681204082</v>
+        <v>679243243</v>
       </c>
       <c r="AG123" s="13" t="n">
-        <v>679243243</v>
+        <v>556621795</v>
       </c>
       <c r="AH123" s="13" t="n">
-        <v>556621795</v>
+        <v>705234375</v>
       </c>
       <c r="AI123" s="13" t="n">
-        <v>705234375</v>
+        <v>772804878</v>
       </c>
       <c r="AJ123" s="13" t="n">
-        <v>772804878</v>
+        <v>812123457</v>
       </c>
       <c r="AK123" s="13" t="n">
-        <v>812123457</v>
+        <v>888862069</v>
       </c>
       <c r="AL123" s="13" t="n">
-        <v>888862069</v>
+        <v>867844595</v>
       </c>
       <c r="AM123" s="13" t="n">
-        <v>867844595</v>
+        <v>881192982</v>
       </c>
       <c r="AN123" s="13" t="n">
-        <v>881192982</v>
+        <v>891384615</v>
       </c>
       <c r="AO123" s="13" t="n">
-        <v>891384615</v>
+        <v>669925926</v>
       </c>
       <c r="AP123" s="13" t="n">
-        <v>669925926</v>
+        <v>891141026</v>
       </c>
       <c r="AQ123" s="13" t="n">
-        <v>891141026</v>
+        <v>779325513</v>
       </c>
       <c r="AR123" s="13" t="n">
-        <v>779325513</v>
+        <v>1419243243</v>
       </c>
       <c r="AS123" s="13" t="n">
-        <v>1419243243</v>
+        <v>1669468354</v>
       </c>
       <c r="AT123" s="13" t="n">
-        <v>1669468354</v>
+        <v>1369659686</v>
       </c>
       <c r="AU123" s="13" t="n">
-        <v>1369659686</v>
+        <v>1405371041</v>
       </c>
       <c r="AV123" s="13" t="n">
-        <v>1405371041</v>
+        <v>1350024390</v>
       </c>
       <c r="AW123" s="13" t="n">
-        <v>1350024390</v>
+        <v>1372708207</v>
       </c>
       <c r="AX123" s="13" t="n">
-        <v>1372708207</v>
+        <v>1484528302</v>
       </c>
       <c r="AY123" s="13" t="n">
-        <v>1484528302</v>
+        <v>1429471963</v>
       </c>
       <c r="AZ123" s="13" t="n">
-        <v>1429471963</v>
+        <v>1601028571</v>
       </c>
       <c r="BA123" s="13" t="n">
-        <v>1601028571</v>
+        <v>1476985836</v>
       </c>
       <c r="BB123" s="13" t="n">
-        <v>1476985836</v>
+        <v>1554145078</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18794,12 +18794,12 @@
       <c r="V124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W124" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X124" s="16" t="n">
+      <c r="W124" s="16" t="n">
         <v>136333333</v>
       </c>
+      <c r="X124" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="Y124" s="16" t="s">
         <v>58</v>
       </c>
@@ -18827,12 +18827,12 @@
       <c r="AG124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH124" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI124" s="16" t="n">
+      <c r="AH124" s="16" t="n">
         <v>357086957</v>
       </c>
+      <c r="AI124" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ124" s="16" t="s">
         <v>58</v>
       </c>
@@ -18842,53 +18842,53 @@
       <c r="AL124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM124" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN124" s="16" t="n">
+      <c r="AM124" s="16" t="n">
         <v>238000000</v>
       </c>
+      <c r="AN124" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AO124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP124" s="16" t="s">
-        <v>58</v>
+      <c r="AP124" s="16" t="n">
+        <v>240600000</v>
       </c>
       <c r="AQ124" s="16" t="n">
-        <v>240600000</v>
+        <v>275600000</v>
       </c>
       <c r="AR124" s="16" t="n">
-        <v>275600000</v>
+        <v>310333333</v>
       </c>
       <c r="AS124" s="16" t="n">
-        <v>310333333</v>
+        <v>443000000</v>
       </c>
       <c r="AT124" s="16" t="n">
-        <v>443000000</v>
+        <v>459750000</v>
       </c>
       <c r="AU124" s="16" t="n">
-        <v>459750000</v>
+        <v>652000000</v>
       </c>
       <c r="AV124" s="16" t="n">
-        <v>652000000</v>
+        <v>326500000</v>
       </c>
       <c r="AW124" s="16" t="n">
-        <v>326500000</v>
+        <v>358500000</v>
       </c>
       <c r="AX124" s="16" t="n">
-        <v>358500000</v>
+        <v>388500000</v>
       </c>
       <c r="AY124" s="16" t="n">
-        <v>388500000</v>
+        <v>630000000</v>
       </c>
       <c r="AZ124" s="16" t="n">
-        <v>630000000</v>
+        <v>464500000</v>
       </c>
       <c r="BA124" s="16" t="n">
-        <v>464500000</v>
+        <v>381250000</v>
       </c>
       <c r="BB124" s="16" t="n">
-        <v>381250000</v>
+        <v>409600000</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19172,29 +19172,29 @@
       <c r="AP126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ126" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR126" s="16" t="n">
+      <c r="AQ126" s="16" t="n">
         <v>47615385</v>
       </c>
-      <c r="AS126" s="16" t="s">
-        <v>58</v>
+      <c r="AR126" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS126" s="16" t="n">
+        <v>54250000</v>
       </c>
       <c r="AT126" s="16" t="n">
-        <v>54250000</v>
+        <v>58800000</v>
       </c>
       <c r="AU126" s="16" t="n">
-        <v>58800000</v>
+        <v>52642857</v>
       </c>
       <c r="AV126" s="16" t="n">
-        <v>52642857</v>
+        <v>673500000</v>
       </c>
       <c r="AW126" s="16" t="n">
-        <v>673500000</v>
-      </c>
-      <c r="AX126" s="16" t="n">
         <v>771000000</v>
+      </c>
+      <c r="AX126" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY126" s="16" t="s">
         <v>58</v>
@@ -19565,11 +19565,11 @@
       <c r="AV129" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW129" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX129" s="16" t="n">
+      <c r="AW129" s="16" t="n">
         <v>831600000</v>
+      </c>
+      <c r="AX129" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY129" s="16" t="s">
         <v>58</v>
@@ -19883,11 +19883,11 @@
       <c r="AV131" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW131" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX131" s="16" t="n">
+      <c r="AW131" s="16" t="n">
         <v>1189157143</v>
+      </c>
+      <c r="AX131" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY131" s="16" t="s">
         <v>58</v>
@@ -19994,11 +19994,11 @@
       <c r="AF132" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG132" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH132" s="13" t="n">
+      <c r="AG132" s="13" t="n">
         <v>580000000</v>
+      </c>
+      <c r="AH132" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI132" s="13" t="s">
         <v>58</v>
@@ -20201,11 +20201,11 @@
       <c r="AV133" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW133" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX133" s="16" t="n">
+      <c r="AW133" s="16" t="n">
         <v>1370000000</v>
+      </c>
+      <c r="AX133" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY133" s="16" t="s">
         <v>58</v>
